--- a/SensorMessungen.xlsx
+++ b/SensorMessungen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,7 @@
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -458,7 +458,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Problem</t>
+          <t>Abweichung</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -473,19 +473,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:45:51</t>
+          <t>10:30:03</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.7</v>
+        <v>31.5</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -504,28 +504,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:46:52</t>
+          <t>10:31:07</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26.6</v>
+        <v>31.9</v>
       </c>
       <c r="E3" t="n">
-        <v>30.9</v>
+        <v>21.9</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -535,28 +535,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:47:58</t>
+          <t>10:32:11</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.2</v>
+        <v>32.1</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>21.6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:49:05</t>
+          <t>10:34:33</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24.3</v>
+        <v>30.3</v>
       </c>
       <c r="E5" t="n">
-        <v>32.6</v>
+        <v>22.6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:50:11</t>
+          <t>10:35:38</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>29.4</v>
       </c>
       <c r="E6" t="n">
-        <v>32.9</v>
+        <v>24.6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -628,19 +628,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:51:12</t>
+          <t>10:36:39</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23.8</v>
+        <v>30.1</v>
       </c>
       <c r="E7" t="n">
-        <v>33.1</v>
+        <v>23.1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -659,19 +659,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:52:19</t>
+          <t>10:37:40</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23.3</v>
+        <v>31.8</v>
       </c>
       <c r="E8" t="n">
-        <v>33.1</v>
+        <v>22.1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -690,19 +690,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:53:22</t>
+          <t>10:38:41</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>31.4</v>
       </c>
       <c r="E9" t="n">
-        <v>33.4</v>
+        <v>22.1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -721,19 +721,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:54:23</t>
+          <t>10:39:42</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>23.6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -752,19 +752,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:55:31</t>
+          <t>10:46:08</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="E11" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -783,28 +783,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:56:32</t>
+          <t>10:47:16</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="E12" t="n">
-        <v>23.6</v>
+        <v>20.9</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -814,28 +814,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:57:38</t>
+          <t>10:48:17</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35.4</v>
+        <v>33.3</v>
       </c>
       <c r="E13" t="n">
-        <v>22.4</v>
+        <v>21.3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -845,19 +845,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:58:42</t>
+          <t>10:49:18</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35.8</v>
+        <v>31.4</v>
       </c>
       <c r="E14" t="n">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -876,19 +876,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:59:44</t>
+          <t>10:50:22</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36.2</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>22.1</v>
+        <v>25.3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -907,28 +907,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00:49</t>
+          <t>10:51:26</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36.5</v>
+        <v>28.9</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9</v>
+        <v>24.4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -938,28 +938,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:01:53</t>
+          <t>10:52:32</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>29.9</v>
       </c>
       <c r="E17" t="n">
-        <v>21.8</v>
+        <v>24.3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -969,28 +969,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:02:54</t>
+          <t>10:53:35</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37.1</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>21.7</v>
+        <v>23</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1000,28 +1000,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:03:55</t>
+          <t>10:54:39</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37.3</v>
+        <v>31.8</v>
       </c>
       <c r="E19" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -1031,19 +1031,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:04:59</t>
+          <t>10:55:46</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37.5</v>
+        <v>32.4</v>
       </c>
       <c r="E20" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1062,19 +1062,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:06:08</t>
+          <t>10:56:48</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37.8</v>
+        <v>32.5</v>
       </c>
       <c r="E21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:07:09</t>
+          <t>10:58:02</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38.1</v>
+        <v>32.6</v>
       </c>
       <c r="E22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1124,19 +1124,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:08:11</t>
+          <t>10:58:22</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38.2</v>
+        <v>32.7</v>
       </c>
       <c r="E23" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1155,19 +1155,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:09:12</t>
+          <t>10:59:29</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38.3</v>
+        <v>32.8</v>
       </c>
       <c r="E24" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1186,19 +1186,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:10:14</t>
+          <t>11:00:30</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38.1</v>
+        <v>32.8</v>
       </c>
       <c r="E25" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1217,28 +1217,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:11:17</t>
+          <t>11:01:06</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>32.6</v>
       </c>
       <c r="E26" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1248,28 +1248,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:12:22</t>
+          <t>11:02:12</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38.2</v>
+        <v>32.4</v>
       </c>
       <c r="E27" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -1279,28 +1279,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:13:23</t>
+          <t>11:03:13</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38.2</v>
+        <v>32.1</v>
       </c>
       <c r="E28" t="n">
-        <v>21.5</v>
+        <v>22.4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -1310,28 +1310,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:14:24</t>
+          <t>11:04:21</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38.3</v>
+        <v>31.9</v>
       </c>
       <c r="E29" t="n">
-        <v>21.4</v>
+        <v>22.3</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -1341,28 +1341,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:15:26</t>
+          <t>11:05:23</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>32.1</v>
       </c>
       <c r="E30" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -1372,28 +1372,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:16:27</t>
+          <t>11:06:24</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34.4</v>
+        <v>32.8</v>
       </c>
       <c r="E31" t="n">
-        <v>26.9</v>
+        <v>22</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1403,19 +1403,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:17:37</t>
+          <t>11:07:27</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>28.3</v>
+        <v>32.9</v>
       </c>
       <c r="E32" t="n">
-        <v>30.6</v>
+        <v>22.1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1434,19 +1434,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:18:43</t>
+          <t>11:08:31</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>25.1</v>
+        <v>32.9</v>
       </c>
       <c r="E33" t="n">
-        <v>30.7</v>
+        <v>22.1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1465,28 +1465,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:19:55</t>
+          <t>11:09:32</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>23.6</v>
+        <v>32.8</v>
       </c>
       <c r="E34" t="n">
-        <v>33.3</v>
+        <v>21.8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1496,28 +1496,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:21:04</t>
+          <t>11:10:33</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23.3</v>
+        <v>32.9</v>
       </c>
       <c r="E35" t="n">
-        <v>33.6</v>
+        <v>21.9</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1527,28 +1527,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12:22:05</t>
+          <t>11:11:34</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E36" t="n">
-        <v>33.6</v>
+        <v>21.9</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1558,28 +1558,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:23:12</t>
+          <t>11:12:35</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>22.5</v>
+        <v>33.1</v>
       </c>
       <c r="E37" t="n">
-        <v>33.8</v>
+        <v>21.8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1589,28 +1589,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:24:16</t>
+          <t>11:13:37</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>22.3</v>
+        <v>33.2</v>
       </c>
       <c r="E38" t="n">
-        <v>33.8</v>
+        <v>22</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1620,19 +1620,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12:25:17</t>
+          <t>11:14:38</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22.3</v>
+        <v>33.1</v>
       </c>
       <c r="E39" t="n">
-        <v>33.4</v>
+        <v>22.2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1651,19 +1651,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:26:19</t>
+          <t>11:15:52</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22.4</v>
+        <v>33.3</v>
       </c>
       <c r="E40" t="n">
-        <v>33.5</v>
+        <v>22.1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1682,19 +1682,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:27:20</t>
+          <t>11:16:55</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22.5</v>
+        <v>33.9</v>
       </c>
       <c r="E41" t="n">
-        <v>33.4</v>
+        <v>22.1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1713,28 +1713,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:28:27</t>
+          <t>11:17:59</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>22.8</v>
+        <v>34.1</v>
       </c>
       <c r="E42" t="n">
-        <v>33.3</v>
+        <v>22</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1744,28 +1744,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12:29:34</t>
+          <t>11:19:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22.8</v>
+        <v>34.3</v>
       </c>
       <c r="E43" t="n">
-        <v>34.1</v>
+        <v>21.8</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -1775,19 +1775,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:30:36</t>
+          <t>11:20:04</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21.9</v>
+        <v>32.5</v>
       </c>
       <c r="E44" t="n">
-        <v>34.1</v>
+        <v>23.7</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -1806,19 +1806,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:31:43</t>
+          <t>11:21:07</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>21.3</v>
+        <v>31.9</v>
       </c>
       <c r="E45" t="n">
-        <v>35.5</v>
+        <v>23.8</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -1837,19 +1837,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12:32:45</t>
+          <t>11:22:08</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21.1</v>
+        <v>31.3</v>
       </c>
       <c r="E46" t="n">
-        <v>35.5</v>
+        <v>24</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1868,19 +1868,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12:33:46</t>
+          <t>11:23:20</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20.9</v>
+        <v>31.3</v>
       </c>
       <c r="E47" t="n">
-        <v>35.4</v>
+        <v>24.3</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -1899,19 +1899,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12:34:49</t>
+          <t>11:24:28</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20.7</v>
+        <v>30.9</v>
       </c>
       <c r="E48" t="n">
-        <v>34.9</v>
+        <v>24.4</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -1930,19 +1930,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12:35:51</t>
+          <t>11:25:32</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20.8</v>
+        <v>30.5</v>
       </c>
       <c r="E49" t="n">
-        <v>34.6</v>
+        <v>24.6</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -1961,19 +1961,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12:36:55</t>
+          <t>11:26:40</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21.9</v>
+        <v>30.3</v>
       </c>
       <c r="E50" t="n">
-        <v>34.5</v>
+        <v>24.9</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -1992,19 +1992,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:37:41</t>
+          <t>11:27:42</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22.3</v>
+        <v>30.3</v>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>24.6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -2023,19 +2023,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12:39:22</t>
+          <t>11:28:43</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21.9</v>
+        <v>31.7</v>
       </c>
       <c r="E52" t="n">
-        <v>34.4</v>
+        <v>23.1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -2054,28 +2054,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12:41:40</t>
+          <t>11:29:49</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>20.9</v>
+        <v>32.9</v>
       </c>
       <c r="E53" t="n">
-        <v>35.5</v>
+        <v>21.6</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2085,28 +2085,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12:44:07</t>
+          <t>11:33:13</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20.4</v>
+        <v>29.8</v>
       </c>
       <c r="E54" t="n">
-        <v>35.7</v>
+        <v>21.7</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2116,19 +2116,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12:44:30</t>
+          <t>11:34:17</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>20.2</v>
+        <v>28.8</v>
       </c>
       <c r="E55" t="n">
-        <v>36.4</v>
+        <v>25.9</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -2147,28 +2147,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14:29:38</t>
+          <t>11:35:20</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>22.1</v>
+        <v>28</v>
       </c>
       <c r="E56" t="n">
-        <v>20.2</v>
+        <v>26.8</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -2178,28 +2178,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14:40:17</t>
+          <t>11:36:21</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>22.9</v>
+        <v>27.8</v>
       </c>
       <c r="E57" t="n">
-        <v>20.3</v>
+        <v>26.9</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -2209,28 +2209,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:40:56</t>
+          <t>11:37:27</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23.2</v>
+        <v>27.8</v>
       </c>
       <c r="E58" t="n">
-        <v>20.3</v>
+        <v>26.2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -2240,28 +2240,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14:47:02</t>
+          <t>11:38:28</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22.4</v>
+        <v>28.5</v>
       </c>
       <c r="E59" t="n">
-        <v>20.6</v>
+        <v>26.2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -2271,28 +2271,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:48:05</t>
+          <t>11:39:34</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>22.2</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>20.6</v>
+        <v>24.1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -2302,28 +2302,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14:49:08</t>
+          <t>11:40:43</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>22.2</v>
+        <v>30.5</v>
       </c>
       <c r="E61" t="n">
-        <v>20.7</v>
+        <v>24.1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -2333,28 +2333,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14:50:24</t>
+          <t>11:41:49</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>22.5</v>
+        <v>32.2</v>
       </c>
       <c r="E62" t="n">
-        <v>20.7</v>
+        <v>22.3</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14:51:27</t>
+          <t>11:43:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>22.5</v>
+        <v>33.1</v>
       </c>
       <c r="E63" t="n">
-        <v>20.8</v>
+        <v>21.9</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2395,19 +2395,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14:52:34</t>
+          <t>11:44:01</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>22.4</v>
+        <v>33.4</v>
       </c>
       <c r="E64" t="n">
-        <v>20.9</v>
+        <v>21.7</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2426,19 +2426,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14:53:37</t>
+          <t>11:45:07</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>22.2</v>
+        <v>34</v>
       </c>
       <c r="E65" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14:53:54</t>
+          <t>11:46:19</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>22</v>
+        <v>34.5</v>
       </c>
       <c r="E66" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2488,19 +2488,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14:54:56</t>
+          <t>11:47:20</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>21.8</v>
+        <v>34.5</v>
       </c>
       <c r="E67" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2519,28 +2519,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14:56:00</t>
+          <t>11:48:21</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21.1</v>
+        <v>34.7</v>
       </c>
       <c r="E68" t="n">
-        <v>25.8</v>
+        <v>21</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2550,28 +2550,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14:57:06</t>
+          <t>11:49:27</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>18.8</v>
+        <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>28.5</v>
+        <v>20.9</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2581,28 +2581,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14:58:07</t>
+          <t>11:50:43</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>18.1</v>
+        <v>35.9</v>
       </c>
       <c r="E70" t="n">
-        <v>28.5</v>
+        <v>20.6</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2612,28 +2612,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14:59:11</t>
+          <t>11:51:44</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>17.1</v>
+        <v>35.8</v>
       </c>
       <c r="E71" t="n">
-        <v>29.8</v>
+        <v>20.7</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2643,28 +2643,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15:00:13</t>
+          <t>11:52:46</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>16.7</v>
+        <v>35.6</v>
       </c>
       <c r="E72" t="n">
-        <v>30.8</v>
+        <v>21.1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2674,28 +2674,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:01:22</t>
+          <t>11:53:47</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>16.1</v>
+        <v>35.4</v>
       </c>
       <c r="E73" t="n">
-        <v>31.7</v>
+        <v>21.2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2705,28 +2705,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:02:28</t>
+          <t>11:54:48</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>15.8</v>
+        <v>35.3</v>
       </c>
       <c r="E74" t="n">
-        <v>32.4</v>
+        <v>21.2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2736,28 +2736,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:03:37</t>
+          <t>11:55:49</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>15.6</v>
+        <v>35.4</v>
       </c>
       <c r="E75" t="n">
-        <v>32.4</v>
+        <v>21.3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2767,28 +2767,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15:04:39</t>
+          <t>11:57:10</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>15.3</v>
+        <v>35.2</v>
       </c>
       <c r="E76" t="n">
-        <v>32.9</v>
+        <v>21.3</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2798,28 +2798,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:05:40</t>
+          <t>11:58:11</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>15.1</v>
+        <v>35.2</v>
       </c>
       <c r="E77" t="n">
-        <v>33.2</v>
+        <v>21.3</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2829,28 +2829,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:06:44</t>
+          <t>11:59:15</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14.7</v>
+        <v>35.2</v>
       </c>
       <c r="E78" t="n">
-        <v>33.2</v>
+        <v>21.3</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2860,28 +2860,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15:07:48</t>
+          <t>12:00:21</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>14.9</v>
+        <v>35.5</v>
       </c>
       <c r="E79" t="n">
-        <v>33.2</v>
+        <v>21.3</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2891,28 +2891,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15:08:49</t>
+          <t>12:01:22</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>15.1</v>
+        <v>35.7</v>
       </c>
       <c r="E80" t="n">
-        <v>32.3</v>
+        <v>21.4</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2922,28 +2922,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:09:59</t>
+          <t>12:02:24</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14.8</v>
+        <v>35.7</v>
       </c>
       <c r="E81" t="n">
-        <v>32.7</v>
+        <v>21.4</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2953,28 +2953,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>15:11:00</t>
+          <t>12:03:35</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>14.6</v>
+        <v>34.9</v>
       </c>
       <c r="E82" t="n">
-        <v>32.7</v>
+        <v>21.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -2984,28 +2984,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>15:12:02</t>
+          <t>12:04:41</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>14.6</v>
+        <v>34.7</v>
       </c>
       <c r="E83" t="n">
-        <v>32.8</v>
+        <v>21.5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3015,28 +3015,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15:13:10</t>
+          <t>12:05:42</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>14.5</v>
+        <v>35.6</v>
       </c>
       <c r="E84" t="n">
-        <v>32.9</v>
+        <v>21.4</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3046,28 +3046,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15:14:17</t>
+          <t>12:06:52</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>14.5</v>
+        <v>35.2</v>
       </c>
       <c r="E85" t="n">
-        <v>33</v>
+        <v>21.5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3077,28 +3077,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15:15:18</t>
+          <t>12:07:55</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>14.5</v>
+        <v>34.9</v>
       </c>
       <c r="E86" t="n">
-        <v>33.2</v>
+        <v>21.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3108,28 +3108,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15:16:20</t>
+          <t>12:09:04</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>14.4</v>
+        <v>34.7</v>
       </c>
       <c r="E87" t="n">
-        <v>33.2</v>
+        <v>21.5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3139,28 +3139,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15:17:24</t>
+          <t>12:10:05</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>14.3</v>
+        <v>34.8</v>
       </c>
       <c r="E88" t="n">
-        <v>33.1</v>
+        <v>21.4</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3170,28 +3170,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:18:28</t>
+          <t>12:11:06</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>14.3</v>
+        <v>34.8</v>
       </c>
       <c r="E89" t="n">
-        <v>33.1</v>
+        <v>21.3</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3201,28 +3201,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15:19:32</t>
+          <t>12:12:07</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>14.3</v>
+        <v>34.8</v>
       </c>
       <c r="E90" t="n">
-        <v>33.1</v>
+        <v>21.3</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3232,28 +3232,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>15:20:33</t>
+          <t>12:13:19</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>14.2</v>
+        <v>35.2</v>
       </c>
       <c r="E91" t="n">
-        <v>33</v>
+        <v>21.3</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3263,28 +3263,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>15:21:50</t>
+          <t>12:14:20</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>14.1</v>
+        <v>35.2</v>
       </c>
       <c r="E92" t="n">
-        <v>33.1</v>
+        <v>21.3</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3294,28 +3294,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>15:22:52</t>
+          <t>12:15:29</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14.1</v>
+        <v>35</v>
       </c>
       <c r="E93" t="n">
-        <v>33.1</v>
+        <v>21.3</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3325,28 +3325,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>15:23:58</t>
+          <t>12:16:35</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>14.2</v>
+        <v>34.9</v>
       </c>
       <c r="E94" t="n">
-        <v>33.2</v>
+        <v>21.3</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3356,28 +3356,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15:25:00</t>
+          <t>12:17:36</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>14.2</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>33.2</v>
+        <v>21.3</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3387,28 +3387,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>15:26:01</t>
+          <t>12:18:47</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>14.1</v>
+        <v>35.1</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>21.3</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3418,28 +3418,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15:27:06</t>
+          <t>12:19:48</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>14</v>
+        <v>35.2</v>
       </c>
       <c r="E97" t="n">
-        <v>33.1</v>
+        <v>21.3</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3449,28 +3449,28 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>15:28:10</t>
+          <t>12:20:52</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13.4</v>
+        <v>35.3</v>
       </c>
       <c r="E98" t="n">
-        <v>33.1</v>
+        <v>21.3</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3480,28 +3480,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15:29:19</t>
+          <t>12:21:32</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>14.2</v>
+        <v>35.3</v>
       </c>
       <c r="E99" t="n">
-        <v>33.4</v>
+        <v>21.3</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3511,28 +3511,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>15:30:25</t>
+          <t>12:22:35</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>14.1</v>
+        <v>35.3</v>
       </c>
       <c r="E100" t="n">
-        <v>33.4</v>
+        <v>21.3</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3542,28 +3542,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15:31:27</t>
+          <t>12:23:46</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>14.1</v>
+        <v>35.2</v>
       </c>
       <c r="E101" t="n">
-        <v>33.5</v>
+        <v>21.4</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3573,28 +3573,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15:32:31</t>
+          <t>12:24:58</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>14.1</v>
+        <v>35</v>
       </c>
       <c r="E102" t="n">
-        <v>33.5</v>
+        <v>21.3</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3604,28 +3604,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>15:33:33</t>
+          <t>12:26:09</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>14.1</v>
+        <v>35.3</v>
       </c>
       <c r="E103" t="n">
-        <v>33.5</v>
+        <v>21.3</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3635,28 +3635,28 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15:34:49</t>
+          <t>12:27:10</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13.8</v>
+        <v>35.4</v>
       </c>
       <c r="E104" t="n">
-        <v>33.5</v>
+        <v>21.3</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3666,28 +3666,28 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15:35:51</t>
+          <t>12:28:36</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13.8</v>
+        <v>35.5</v>
       </c>
       <c r="E105" t="n">
-        <v>33.5</v>
+        <v>21.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3697,28 +3697,28 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>15:36:55</t>
+          <t>12:29:37</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>14</v>
+        <v>35.4</v>
       </c>
       <c r="E106" t="n">
-        <v>30.5</v>
+        <v>21.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3728,28 +3728,28 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>15:37:57</t>
+          <t>12:30:41</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>15.1</v>
+        <v>35.2</v>
       </c>
       <c r="E107" t="n">
-        <v>30.3</v>
+        <v>21.4</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3759,28 +3759,28 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15:39:04</t>
+          <t>12:31:42</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>17.1</v>
+        <v>35.1</v>
       </c>
       <c r="E108" t="n">
-        <v>26.3</v>
+        <v>21.6</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3790,28 +3790,28 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>16:05:34</t>
+          <t>12:32:46</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>18.9</v>
+        <v>34.8</v>
       </c>
       <c r="E109" t="n">
-        <v>26.2</v>
+        <v>21.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3821,28 +3821,28 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>16:29:29</t>
+          <t>12:33:47</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>38.4</v>
+        <v>34.8</v>
       </c>
       <c r="E110" t="n">
-        <v>29.9</v>
+        <v>21.6</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3852,28 +3852,28 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>16:30:11</t>
+          <t>12:34:51</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>34.6</v>
+        <v>35</v>
       </c>
       <c r="E111" t="n">
-        <v>29.9</v>
+        <v>21.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3883,28 +3883,28 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>16:30:45</t>
+          <t>12:35:52</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>32.6</v>
+        <v>35.2</v>
       </c>
       <c r="E112" t="n">
-        <v>31.8</v>
+        <v>21.5</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3914,28 +3914,28 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15:05:00</t>
+          <t>12:36:58</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>30.8</v>
+        <v>35.2</v>
       </c>
       <c r="E113" t="n">
-        <v>32.9</v>
+        <v>21.5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3945,28 +3945,28 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>15:06:05</t>
+          <t>12:37:59</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28.8</v>
+        <v>35.1</v>
       </c>
       <c r="E114" t="n">
-        <v>34.1</v>
+        <v>21.4</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -3976,28 +3976,28 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>15:06:32</t>
+          <t>12:39:13</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>28.6</v>
+        <v>35</v>
       </c>
       <c r="E115" t="n">
-        <v>34.7</v>
+        <v>21.3</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4007,28 +4007,28 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>15:07:38</t>
+          <t>12:40:14</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E116" t="n">
-        <v>34.9</v>
+        <v>21.4</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4038,28 +4038,28 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15:08:02</t>
+          <t>12:41:28</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>27.7</v>
+        <v>35.2</v>
       </c>
       <c r="E117" t="n">
-        <v>35.1</v>
+        <v>21.3</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4069,28 +4069,28 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>15:09:08</t>
+          <t>12:42:52</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>27.2</v>
+        <v>35.2</v>
       </c>
       <c r="E118" t="n">
-        <v>35.5</v>
+        <v>21.6</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4100,28 +4100,28 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>15:10:09</t>
+          <t>12:44:08</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>27.1</v>
+        <v>34.9</v>
       </c>
       <c r="E119" t="n">
-        <v>35.5</v>
+        <v>21.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4131,28 +4131,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15:11:14</t>
+          <t>12:45:19</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>32.5</v>
+        <v>34.9</v>
       </c>
       <c r="E120" t="n">
-        <v>29.1</v>
+        <v>21.6</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4162,28 +4162,28 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>15:12:15</t>
+          <t>12:46:20</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35.7</v>
+        <v>34.9</v>
       </c>
       <c r="E121" t="n">
-        <v>28.9</v>
+        <v>21.6</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4193,28 +4193,28 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>15:13:22</t>
+          <t>12:47:21</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>38.2</v>
+        <v>35</v>
       </c>
       <c r="E122" t="n">
-        <v>25.5</v>
+        <v>21.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4224,28 +4224,28 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>15:14:26</t>
+          <t>12:48:14</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>39.6</v>
+        <v>35</v>
       </c>
       <c r="E123" t="n">
-        <v>25.5</v>
+        <v>21.6</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4255,28 +4255,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>15:15:31</t>
+          <t>12:53:21</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>40.2</v>
+        <v>34.9</v>
       </c>
       <c r="E124" t="n">
-        <v>25.3</v>
+        <v>21.6</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4286,28 +4286,28 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>15:16:32</t>
+          <t>12:55:00</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>40.2</v>
+        <v>34.6</v>
       </c>
       <c r="E125" t="n">
-        <v>25.3</v>
+        <v>21.8</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4317,28 +4317,28 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>15:17:37</t>
+          <t>12:56:07</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>40.6</v>
+        <v>34.6</v>
       </c>
       <c r="E126" t="n">
-        <v>25.1</v>
+        <v>21.7</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4348,28 +4348,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15:18:39</t>
+          <t>12:57:05</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>41.5</v>
+        <v>34.9</v>
       </c>
       <c r="E127" t="n">
-        <v>24.4</v>
+        <v>21.8</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4379,28 +4379,28 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>16:02:05</t>
+          <t>12:58:11</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>37.6</v>
+        <v>35.2</v>
       </c>
       <c r="E128" t="n">
-        <v>26</v>
+        <v>21.7</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4410,28 +4410,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>16:03:13</t>
+          <t>12:59:20</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>37.3</v>
+        <v>35</v>
       </c>
       <c r="E129" t="n">
-        <v>28.1</v>
+        <v>21.7</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4441,28 +4441,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16:04:15</t>
+          <t>13:00:29</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>37.7</v>
+        <v>34.8</v>
       </c>
       <c r="E130" t="n">
-        <v>27.4</v>
+        <v>21.6</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4472,28 +4472,28 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>16:05:17</t>
+          <t>13:01:35</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>39.3</v>
+        <v>35.1</v>
       </c>
       <c r="E131" t="n">
-        <v>26.2</v>
+        <v>21.4</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4503,19 +4503,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16:15:52</t>
+          <t>13:02:49</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>31.8</v>
+        <v>35.6</v>
       </c>
       <c r="E132" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4534,28 +4534,28 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16:16:54</t>
+          <t>13:03:50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>31.1</v>
+        <v>35.5</v>
       </c>
       <c r="E133" t="n">
-        <v>23.4</v>
+        <v>21.4</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4565,28 +4565,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>16:17:29</t>
+          <t>13:04:56</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>30.5</v>
+        <v>35.2</v>
       </c>
       <c r="E134" t="n">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4596,28 +4596,28 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>11:10:21</t>
+          <t>13:05:24</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>30.4</v>
+        <v>35.2</v>
       </c>
       <c r="E135" t="n">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4627,28 +4627,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11:11:24</t>
+          <t>13:06:32</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>30.5</v>
+        <v>35.3</v>
       </c>
       <c r="E136" t="n">
-        <v>23.2</v>
+        <v>21.1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4658,28 +4658,28 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>11:12:26</t>
+          <t>13:07:33</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>30.6</v>
+        <v>35</v>
       </c>
       <c r="E137" t="n">
-        <v>23.2</v>
+        <v>21.7</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4689,28 +4689,28 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>11:13:28</t>
+          <t>13:07:57</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>30.6</v>
+        <v>34.6</v>
       </c>
       <c r="E138" t="n">
-        <v>23.1</v>
+        <v>21.8</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4720,28 +4720,28 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>11:14:29</t>
+          <t>13:09:07</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>30.6</v>
+        <v>34.1</v>
       </c>
       <c r="E139" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4751,28 +4751,28 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>11:15:31</t>
+          <t>13:10:08</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>30.7</v>
+        <v>34</v>
       </c>
       <c r="E140" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4782,28 +4782,28 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>11:16:38</t>
+          <t>13:10:26</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>30.7</v>
+        <v>33.8</v>
       </c>
       <c r="E141" t="n">
-        <v>23</v>
+        <v>21.9</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4813,28 +4813,28 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>11:17:40</t>
+          <t>13:12:13</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>30.8</v>
+        <v>33.6</v>
       </c>
       <c r="E142" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4844,28 +4844,28 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>11:18:44</t>
+          <t>13:13:25</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>30.9</v>
+        <v>33.1</v>
       </c>
       <c r="E143" t="n">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4875,28 +4875,28 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>11:19:46</t>
+          <t>13:13:35</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>30.9</v>
+        <v>33</v>
       </c>
       <c r="E144" t="n">
-        <v>22.7</v>
+        <v>22</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4906,28 +4906,28 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>11:20:48</t>
+          <t>13:14:59</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>31.1</v>
+        <v>33.2</v>
       </c>
       <c r="E145" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4937,28 +4937,28 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>11:21:54</t>
+          <t>13:15:49</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>31.2</v>
+        <v>33.2</v>
       </c>
       <c r="E146" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4968,28 +4968,28 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>11:22:56</t>
+          <t>13:16:52</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>31.2</v>
+        <v>33.3</v>
       </c>
       <c r="E147" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -4999,28 +4999,28 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>11:23:58</t>
+          <t>13:17:10</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>30.9</v>
+        <v>33.2</v>
       </c>
       <c r="E148" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5030,28 +5030,28 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>11:25:00</t>
+          <t>13:17:49</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>30.9</v>
+        <v>33.1</v>
       </c>
       <c r="E149" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5061,28 +5061,28 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>11:26:02</t>
+          <t>13:18:52</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>30.9</v>
+        <v>33</v>
       </c>
       <c r="E150" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5092,28 +5092,28 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>11:27:06</t>
+          <t>13:19:53</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>31</v>
+        <v>32.9</v>
       </c>
       <c r="E151" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5123,28 +5123,28 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>11:28:07</t>
+          <t>13:20:57</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>31.1</v>
+        <v>32.9</v>
       </c>
       <c r="E152" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5154,28 +5154,28 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>11:29:09</t>
+          <t>13:21:56</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>31.1</v>
+        <v>32.9</v>
       </c>
       <c r="E153" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5185,28 +5185,28 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>11:30:11</t>
+          <t>13:22:40</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E154" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5216,28 +5216,28 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>11:31:13</t>
+          <t>13:23:33</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>30.8</v>
+        <v>33.1</v>
       </c>
       <c r="E155" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5247,28 +5247,28 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>11:32:17</t>
+          <t>13:24:41</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>30.7</v>
+        <v>33</v>
       </c>
       <c r="E156" t="n">
-        <v>22.7</v>
+        <v>21.9</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
     </row>
@@ -5278,19 +5278,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>11:33:18</t>
+          <t>13:25:12</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>30.6</v>
+        <v>32.6</v>
       </c>
       <c r="E157" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -5309,19 +5309,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>11:34:20</t>
+          <t>13:25:44</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="E158" t="n">
-        <v>22.7</v>
+        <v>23.4</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -5340,19 +5340,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>11:35:25</t>
+          <t>13:26:56</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="E159" t="n">
-        <v>22.7</v>
+        <v>25</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -5371,19 +5371,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>11:36:26</t>
+          <t>13:27:17</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>30.5</v>
+        <v>29.7</v>
       </c>
       <c r="E160" t="n">
-        <v>22.7</v>
+        <v>25</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -5402,19 +5402,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>27.11.2023</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>11:37:33</t>
+          <t>13:27:45</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>30.6</v>
+        <v>29.3</v>
       </c>
       <c r="E161" t="n">
-        <v>22.7</v>
+        <v>25.3</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5423,2642 +5423,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>11:38:35</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E162" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>11:39:37</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>11:40:39</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>11:41:40</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>30</v>
-      </c>
-      <c r="E165" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>11:42:44</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>11:43:46</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>11:44:48</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>11:46:00</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>11:47:05</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E170" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>11:48:09</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E171" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>11:49:10</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E172" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>11:50:15</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E173" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>11:51:17</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>28</v>
-      </c>
-      <c r="E174" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>11:52:24</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>13:35:53</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E176" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>13:36:37</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>13:51:00</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>13:52:04</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>13:53:09</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E180" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>13:54:13</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>13:55:23</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E182" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>13:56:30</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E183" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>13:57:43</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E184" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>13:58:45</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>13:59:47</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E186" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>14:00:51</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>14:01:18</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>30</v>
-      </c>
-      <c r="E188" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>14:02:26</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E189" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>14:03:28</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E190" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>14:04:33</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E191" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>14:05:55</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E192" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>14:06:57</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E193" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>14:08:09</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E194" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>14:09:21</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E195" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>14:10:23</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>14:11:28</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E197" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>14:12:35</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E198" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>14:13:44</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E199" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>14:14:46</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E200" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>14:15:48</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E201" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>201</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>14:16:53</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E202" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>202</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>14:17:57</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E203" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>203</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>14:18:23</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E204" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>204</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>14:19:35</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E205" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>205</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>14:19:42</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E206" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>206</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>14:20:46</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E207" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>14:21:48</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E208" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>14:22:52</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E209" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>14:24:02</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E210" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>14:25:06</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E211" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>14:26:13</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E212" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>14:27:38</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E213" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>213</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>14:28:18</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E214" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>214</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>14:30:58</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>29</v>
-      </c>
-      <c r="E215" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>215</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>14:32:42</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E216" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>216</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>14:37:49</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E217" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>217</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>14:38:39</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E218" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>218</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>14:40:26</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E219" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>219</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>15:04:50</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E220" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>220</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>15:30:12</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E221" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>221</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>15:34:26</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E222" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>222</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>15:35:45</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E223" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>223</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>15:36:47</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>224</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>15:42:08</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E225" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>225</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>15:42:38</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E226" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>226</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>15:43:12</t>
-        </is>
-      </c>
-      <c r="D227" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E227" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>227</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>15:44:06</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E228" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>228</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>15:46:26</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E229" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>229</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>15:46:52</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>230</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>16:01:59</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E231" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>231</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>16:03:12</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>36</v>
-      </c>
-      <c r="E232" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>232</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>16:04:33</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>29</v>
-      </c>
-      <c r="E233" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>233</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>16:26:18</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E234" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>16:27:39</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E235" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>235</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>16:28:43</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E236" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>236</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>16:28:58</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E237" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>237</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>16:30:54</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E238" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>238</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>16:32:09</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E239" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>239</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>16:48:47</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E240" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>240</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>16:49:52</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E241" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>241</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>16:51:04</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>16:53:03</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E243" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>243</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>16:54:08</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E244" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>244</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>17:06:58</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E245" t="n">
-        <v>25</v>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>24.11.2023</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>17:08:02</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E246" t="n">
-        <v>25</v>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>3.0</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>

--- a/SensorMessungen.xlsx
+++ b/SensorMessungen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5427,6 +5427,657 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>13:28:51</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>13:29:55</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>13:30:58</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>27</v>
+      </c>
+      <c r="E164" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>13:32:07</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>13:34:21</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>13:35:30</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>13:36:31</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>13:37:32</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>13:38:33</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>13:39:34</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>13:40:40</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>13:41:41</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>13:42:43</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>13:43:46</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>13:44:55</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>13:46:03</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>13:47:04</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>13:49:44</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>32</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>13:50:50</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>13:51:54</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>13:52:32</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>34</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SensorMessungen.xlsx
+++ b/SensorMessungen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6078,6 +6078,1277 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>13:53:49</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>12.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>14:33:31</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>12.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>14:34:38</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>14:35:39</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>14:36:40</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>14:37:41</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>14:38:44</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>14:39:46</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>14:40:47</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>36</v>
+      </c>
+      <c r="E191" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>14:41:48</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>36</v>
+      </c>
+      <c r="E192" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>14:42:49</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>14:43:50</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>14:44:51</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>14:45:52</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>14:46:53</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>14:52:11</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>14:53:17</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>14:54:21</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E200" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>14:55:22</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>31</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>14:56:23</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>23</v>
+      </c>
+      <c r="E202" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>14:57:37</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E203" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>14:58:47</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>14:59:48</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>30</v>
+      </c>
+      <c r="E205" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>15:00:49</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>15:03:14</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>15:04:26</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>15:04:42</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>15:06:13</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E210" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>15:19:02</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>15:20:06</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E212" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>15:21:07</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E213" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>15:22:08</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E214" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>15:23:09</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E215" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>15:24:13</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>15:25:21</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>35</v>
+      </c>
+      <c r="E217" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>15:26:25</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E218" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>15:27:31</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>15:28:35</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>35</v>
+      </c>
+      <c r="E220" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>15:28:58</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>15:30:02</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E222" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>15:30:49</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SensorMessungen.xlsx
+++ b/SensorMessungen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7349,6 +7349,6299 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>15:31:55</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>15:32:56</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>15:33:57</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E226" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>15:34:58</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E227" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>15:36:00</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>15:37:01</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E229" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>15:38:02</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>15:39:03</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>15:40:07</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E232" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>08:43:35</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E233" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>08:44:40</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>42</v>
+      </c>
+      <c r="E234" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>08:45:41</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>08:46:42</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E236" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>08:47:43</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E237" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>08:48:44</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E238" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>08:49:45</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>08:50:46</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>08:51:47</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>08:52:49</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>42</v>
+      </c>
+      <c r="E242" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>08:53:50</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E243" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>08:54:51</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E244" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>08:55:52</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E245" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>08:56:53</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E246" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>08:57:54</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>08:58:58</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>08:59:59</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>41</v>
+      </c>
+      <c r="E249" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>09:01:03</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E250" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>09:02:04</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E251" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>09:03:05</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>09:04:06</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>41</v>
+      </c>
+      <c r="E253" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>09:05:07</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E254" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>09:06:08</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E255" t="n">
+        <v>19</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>09:07:09</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>19</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>09:08:10</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E257" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>09:09:11</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E258" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>09:10:13</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>09:11:16</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E260" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>09:12:20</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E261" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>09:13:21</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>09:14:27</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E263" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>09:15:28</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>09:16:29</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>09:17:30</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E266" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>09:18:32</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>09:19:35</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E268" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>09:20:39</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>09:21:40</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>09:22:41</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E271" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>09:23:42</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E272" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>09:24:43</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>09:25:44</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>09:26:45</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E275" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>09:27:49</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>09:28:53</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E277" t="n">
+        <v>26</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>09:29:54</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E278" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>09:30:56</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E279" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>09:31:57</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>09:33:00</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E281" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>09:34:05</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E282" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>09:35:06</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>09:36:07</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E284" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>09:37:08</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>09:38:09</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E286" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>09:44:12</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E287" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>09:45:25</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E288" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>09:46:26</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E289" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>09:47:32</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E290" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>09:48:33</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>29</v>
+      </c>
+      <c r="E291" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>09:49:37</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E292" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>09:50:42</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E293" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>09:51:46</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>34</v>
+      </c>
+      <c r="E294" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>09:52:55</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="E295" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>09:53:56</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E296" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>09:56:13</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E298" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>09:57:14</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E299" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>09:58:16</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E300" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>09:59:22</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E301" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>10:01:05</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>10:02:09</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E303" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>10:03:13</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E304" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>10:04:14</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E305" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>10:05:19</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>10:06:20</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E307" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>10:07:29</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E308" t="n">
+        <v>30</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>10:08:30</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E309" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>10:09:31</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E310" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>10:10:33</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E311" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>10:11:35</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>22</v>
+      </c>
+      <c r="E312" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>10:12:38</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E313" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>10:13:39</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E314" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>10:14:45</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E315" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>10:15:48</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>10:16:49</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E317" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>10:17:53</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E318" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>10:19:04</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E319" t="n">
+        <v>34</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>10:19:17</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E320" t="n">
+        <v>34</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>10:21:48</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E321" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>10:22:51</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E322" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>10:25:14</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E323" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>10:26:18</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E324" t="n">
+        <v>34</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>10:30:48</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E325" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>12.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>10:31:52</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>10:41:42</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E327" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>10:42:46</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E328" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>10:47:00</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E329" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>10:48:04</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E330" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>11.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>10:49:05</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E331" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>10:50:06</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E332" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>10:51:07</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E333" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>10:52:08</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E334" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>10:53:11</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E335" t="n">
+        <v>33</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>10:54:12</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E336" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>10:55:13</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E337" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>10:56:16</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>10:57:18</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E339" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>10.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>10:58:45</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E340" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>10:59:46</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20</v>
+      </c>
+      <c r="E341" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>11:00:47</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20</v>
+      </c>
+      <c r="E342" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>11:01:48</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E343" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>11:02:49</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>24</v>
+      </c>
+      <c r="E344" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>11:03:52</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>26</v>
+      </c>
+      <c r="E345" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>11:04:58</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E346" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>11:05:59</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E347" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>11:07:00</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E348" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>11:08:01</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E349" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>11:09:04</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E350" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>11:10:08</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E351" t="n">
+        <v>23</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>11:11:09</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E352" t="n">
+        <v>23</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>11:12:10</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E353" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>11:13:11</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E354" t="n">
+        <v>21</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>11:14:17</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E355" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>11:15:22</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>31</v>
+      </c>
+      <c r="E356" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>11:16:26</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E357" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>11:17:34</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E358" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>11:18:36</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E359" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>11:19:37</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E360" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>11:20:47</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E361" t="n">
+        <v>23</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>11:21:48</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E362" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>11:22:49</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E363" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>11:23:50</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E364" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>11:24:51</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>11:25:59</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E366" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>11:27:00</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E367" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>11:28:01</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E368" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>11:29:05</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E369" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>11:30:09</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E370" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>11:31:14</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E371" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>11:32:15</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E372" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>11:33:16</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E373" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>11:34:17</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E374" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>11:35:29</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E375" t="n">
+        <v>23</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>11:36:31</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E376" t="n">
+        <v>23</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>11:37:32</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E377" t="n">
+        <v>23</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>11:38:33</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E378" t="n">
+        <v>23</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>11:39:37</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E379" t="n">
+        <v>23</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>11:40:38</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E380" t="n">
+        <v>23</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>11:41:46</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E381" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>11:42:55</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E382" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>11:43:58</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E383" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>11:44:59</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E384" t="n">
+        <v>23</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>11:46:06</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E385" t="n">
+        <v>23</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>11:47:08</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E386" t="n">
+        <v>23</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>11:48:12</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E387" t="n">
+        <v>23</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>11:49:18</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E388" t="n">
+        <v>23</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>11:50:22</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E389" t="n">
+        <v>23</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>11:51:25</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E390" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>11:52:36</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E391" t="n">
+        <v>23</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>11:53:37</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E392" t="n">
+        <v>23</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>11:54:38</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E393" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>11:55:39</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E394" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>11:56:43</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E395" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>11:57:48</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E396" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>11:58:49</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E397" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>11:59:50</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E398" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>12:00:51</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E399" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>12:01:52</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E400" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>12:02:55</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E401" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>12:04:01</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E402" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>12:05:02</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E403" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>12:06:03</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E404" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>12:07:04</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E405" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>12:08:15</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E406" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>12:09:16</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E407" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>12:10:19</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E408" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>12:11:21</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E409" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>12:12:22</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E410" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>12:13:30</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E411" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>12:14:31</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E412" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>12:15:34</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E413" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>12:16:40</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E414" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>12:17:42</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E415" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>12:18:44</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E416" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>12:19:53</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E417" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>12:20:55</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E418" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>12:21:59</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E419" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>12:23:05</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E420" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>12:24:10</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E421" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>12:25:16</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E422" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>12:26:17</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E423" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>12:27:18</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E424" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>12:28:22</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E425" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>12:29:07</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E426" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SensorMessungen.xlsx
+++ b/SensorMessungen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G426"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13642,6 +13642,1804 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>12:30:19</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E427" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>12:31:25</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E428" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>12:32:27</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>32</v>
+      </c>
+      <c r="E429" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>12:54:30</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E430" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>12:55:27</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E431" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>12:56:48</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E432" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>13:01:12</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E433" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>13:03:18</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E434" t="n">
+        <v>21</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>13:04:41</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E435" t="n">
+        <v>21</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>13:05:42</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E436" t="n">
+        <v>21</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>13:06:19</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E437" t="n">
+        <v>21</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>13:09:33</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>13:34:56</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E439" t="n">
+        <v>21</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>13:36:01</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E440" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>13:37:05</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E441" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>13:38:06</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>34</v>
+      </c>
+      <c r="E442" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>13:39:10</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E443" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>13:40:39</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E444" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>13:41:47</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E445" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>13:42:48</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>34</v>
+      </c>
+      <c r="E446" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>13:43:55</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E447" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>13:44:58</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E448" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>13:45:59</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E449" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>13:47:03</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>34</v>
+      </c>
+      <c r="E450" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>13:48:04</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>34</v>
+      </c>
+      <c r="E451" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>13:49:05</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E452" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>13:50:09</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E453" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>13:51:13</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E454" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>13:52:24</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E455" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>13:53:27</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E456" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>13:54:15</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E457" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>13:55:35</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E458" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>14:06:15</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E459" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>14:07:37</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>34</v>
+      </c>
+      <c r="E460" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>14:08:42</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E461" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>14:09:46</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E462" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>14:10:49</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E463" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>14:11:53</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E464" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>14:12:54</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E465" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>14:14:01</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E466" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>14:15:31</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E467" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>14:19:54</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>34</v>
+      </c>
+      <c r="E468" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>14:20:30</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E469" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>14:21:16</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E470" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>14:22:26</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>34</v>
+      </c>
+      <c r="E471" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>14:23:27</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E472" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>14:24:31</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E473" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>14:25:47</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E474" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>14:26:48</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E475" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>14:27:30</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E476" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>14:30:22</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E477" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>14:31:37</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E478" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>14:37:19</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E479" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>14:44:12</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E480" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>14:45:32</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E481" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>14:46:40</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E482" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>14:47:13</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E483" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>14:48:37</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E484" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SensorMessungen.xlsx
+++ b/SensorMessungen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G484"/>
+  <dimension ref="A1:G497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15440,6 +15440,409 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>14:49:43</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>34</v>
+      </c>
+      <c r="E485" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>14:50:45</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E486" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>14:51:48</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E487" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>14:52:49</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E488" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>14:53:50</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E489" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>14:54:54</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E490" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>14:55:58</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E491" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>14:57:04</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E492" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>14:58:05</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E493" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>14:59:06</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E494" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>15:00:07</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E495" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>15:01:08</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>34</v>
+      </c>
+      <c r="E496" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>15:05:56</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E497" t="n">
+        <v>21</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
